--- a/currentbuild/StructureDefinition-no-basis-address-official.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-address-official.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines the concept of an officialy registered address in Norway. Usually this will be the adress registered in "Folkeregisteret" for persons or "Enhetsregisteret" for organizations.</t>
+    <t>Defines the concept of an officially registered address in Norway. Usually this will be the address registered in "Folkeregisteret" for persons or "Enhetsregisteret" for organizations.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>The concept of an officially registered address</t>
-  </si>
-  <si>
-    <t>Defines the concept of an officially registered address in Norway. Usually this will be the adress registered in "Folkeregisteret" for persons or "Enhetsregisteret" for organizations.</t>
   </si>
   <si>
     <t>*</t>
@@ -838,7 +835,7 @@
         <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -895,13 +892,13 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>73</v>
@@ -909,10 +906,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -935,13 +932,13 @@
         <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -992,7 +989,7 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
@@ -1007,15 +1004,15 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1038,13 +1035,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1083,31 +1080,31 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1115,10 +1112,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1141,16 +1138,16 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1200,7 +1197,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1215,15 +1212,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1246,13 +1243,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1303,7 +1300,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1315,10 +1312,10 @@
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-no-basis-address-official.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-address-official.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-address-official</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-address-official</t>
   </si>
   <si>
     <t>Version</t>
